--- a/biology/Origine et évolution du vivant/Palynomorphe/Palynomorphe.xlsx
+++ b/biology/Origine et évolution du vivant/Palynomorphe/Palynomorphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les palynomorphes sont des microfossiles à parois organiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont définis par opposition à tous les microfossiles à parois minérales tels que les foraminifères, les conodontes, etc. qui sont étudiés par les micropaléontologues. 
 </t>
@@ -542,7 +556,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les palynomorphes sont :
 d'origine continentale, comme les algues d'eaux douces, les spores, les cryptospores, les pollens ;
@@ -575,10 +591,12 @@
           <t>Étude</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les palynomorphes sont principalement collectés et étudiés par les palynologues, qui ont généralement reçu une formation de géologue et/ou de biologiste. 
-Ils peuvent apporter un grand nombre d'informations sur les paléoenvironnement, sur leur évolution au cours du temps, et sur les causes et conditions des changements environnementaux (géoclimatiques, eustatiques...) du passé[1]...). 
+Ils peuvent apporter un grand nombre d'informations sur les paléoenvironnement, sur leur évolution au cours du temps, et sur les causes et conditions des changements environnementaux (géoclimatiques, eustatiques...) du passé...). 
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Avantages et inconvénients pour la science</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les palynomorphes sont une énorme source d'information. Cette source présente l'avantage d'être moins affectée par les biais de fossilisation que les informations apportées par les fossiles et macro-fossiles de plantes et d'animaux. 
 Néanmoins son étude est grevée par d'importants biais de taxonomie, généralement d'autant plus importants qu'on remonte loin dans le passé : manque de connaissance paléotaxonomiques, difficulté d'identification (en raison notamment de descripteurs plus ou moins fiables), impossibilité d'utiliser l'ADN, l'ADN environnemental pour l'identification, difficulté à définir des répartitions quand les spores, pollens et autres micro-traces du vivant ont pu - en raison de leur légèreté - être largement dispersés par l'eau et/ou le vent avant de fossiliser. 
